--- a/target/classes/wallet.xlsx
+++ b/target/classes/wallet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="69">
   <si>
     <t>TCID</t>
   </si>
@@ -195,6 +195,30 @@
   </si>
   <si>
     <t>19240</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>Valid Login Credentials</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>Invalid Login with Incorrect Password</t>
+  </si>
+  <si>
+    <t>cGFzc3dvcmQx</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>Invalid Login with Incorrect UserName</t>
+  </si>
+  <si>
+    <t>srikanthtestin@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1100,6 +1124,126 @@
         <v>29</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
